--- a/docs/詳細設計書/詳細設計書_分類情報画面_認証.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_認証.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1521F9-161A-4E67-B17F-518216558D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5294613F-5220-4C91-96B7-C31D31866FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="【補足】認証フロー" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面イメージ!$A$1:$AO$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面イメージ!$A$1:$AO$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">機能概要!$A$1:$AO$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">処理詳細!$A$1:$AO$45</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -290,45 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫管理システムは、管理者用のシステムです。</t>
-    <rPh sb="0" eb="4">
-      <t>ザイコカンリシス</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面から認証を行わないと、他の画面は使用できません。</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナワナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本ログイン画面から認証を行います。</t>
-    <rPh sb="0" eb="1">
-      <t>ホンガメンヘ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オコナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者情報テーブル</t>
     <rPh sb="0" eb="3">
       <t>カンリ</t>
@@ -337,13 +298,6 @@
   </si>
   <si>
     <t>1. 初期表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1 ログイン画面を表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -409,35 +363,6 @@
     </rPh>
     <rPh sb="17" eb="21">
       <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ログイン画面以外のすべてのページは認証ができないとアクセスができない仕様となります。</t>
-    <rPh sb="7" eb="9">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　上記仕様の通り、作成した分類情報管理画面も認証が必要となります。</t>
-    <rPh sb="1" eb="5">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="21">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,25 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>adminIdとpassword部分に管理者情報テーブルに登録されているIDとPWを入力してLOGINを押下する</t>
-    <rPh sb="16" eb="18">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>カンリシャジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>****</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -693,34 +599,6 @@
     <t>$320,813</t>
   </si>
   <si>
-    <t>ログイン後、在庫リスト画面(HOME画面)に遷移する(画面イメージの為表は適当)</t>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>タメヒョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テキトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2の処理を記述</t>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
@@ -740,12 +618,158 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>hogehoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインIDまたはPWが不正です。</t>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、在庫リスト画面(HOME画面)に遷移する。(画面イメージの為表は適当)</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タメヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テキトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adminIdとpassword部分に管理者情報テーブルに登録されているIDとPWを入力してLOGINを押下する。</t>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>カンリシャジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異なるIDとPWを入力するとエラーメッセージが表示される。</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1 ログイン画面を表示する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ログイン画面以外のすべてのページは認証ができないとアクセスができない仕様となる。</t>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　上記仕様の通り、作成した分類情報管理画面も認証が必要となる。</t>
+    <rPh sb="1" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="21">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面から認証を行わないと、他の画面は使用できない。</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナワナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本ログイン画面から認証を行う。</t>
+    <rPh sb="0" eb="1">
+      <t>ホンガメンヘ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫管理システムは、管理者用のシステムである。</t>
+    <rPh sb="0" eb="4">
+      <t>ザイコカンリシス</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,6 +898,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1054,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,224 +1281,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1500,6 +1315,225 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6578,7 +6612,7 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3:AO4"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6587,131 +6621,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75" t="s">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="74" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
       <c r="AE1" s="78" t="s">
         <v>28</v>
       </c>
       <c r="AF1" s="78"/>
       <c r="AG1" s="78"/>
       <c r="AH1" s="78"/>
-      <c r="AI1" s="74" t="s">
+      <c r="AI1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="79">
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="83">
         <v>45566</v>
       </c>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="74" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75" t="s">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="78"/>
       <c r="AF2" s="78"/>
       <c r="AG2" s="78"/>
       <c r="AH2" s="78"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="74" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
       <c r="T3" s="78" t="s">
         <v>36</v>
       </c>
@@ -6722,47 +6756,47 @@
       <c r="Y3" s="78"/>
       <c r="Z3" s="78"/>
       <c r="AA3" s="78"/>
-      <c r="AB3" s="74" t="s">
+      <c r="AB3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
       <c r="AE3" s="78"/>
       <c r="AF3" s="78"/>
       <c r="AG3" s="78"/>
       <c r="AH3" s="78"/>
-      <c r="AI3" s="74" t="s">
+      <c r="AI3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="78" t="s">
         <v>37</v>
       </c>
@@ -6773,69 +6807,69 @@
       <c r="Y4" s="78"/>
       <c r="Z4" s="78"/>
       <c r="AA4" s="78"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
       <c r="AE4" s="78"/>
       <c r="AF4" s="78"/>
       <c r="AG4" s="78"/>
       <c r="AH4" s="78"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81" t="s">
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
@@ -6861,7 +6895,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="21" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
@@ -6886,7 +6920,7 @@
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -6910,7 +6944,7 @@
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
       <c r="W8" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
@@ -7179,24 +7213,24 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="81" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="24" t="s">
         <v>14</v>
       </c>
@@ -7209,41 +7243,41 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="82" t="s">
+      <c r="Q20" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="83"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="83"/>
-      <c r="AN20" s="83"/>
-      <c r="AO20" s="83"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
     </row>
     <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="78">
         <v>1</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -7296,7 +7330,7 @@
     </row>
     <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="78"/>
-      <c r="B22" s="84"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -7339,7 +7373,7 @@
     </row>
     <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="78"/>
-      <c r="B23" s="84"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -7768,8 +7802,8 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7812,38 +7846,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A5:V5"/>
-    <mergeCell ref="W5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="Q20:AO20"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -7855,12 +7863,38 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="W5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="Q20:AO20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7874,10 +7908,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AO152"/>
+  <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -7889,131 +7923,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75" t="s">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="74" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
       <c r="AE1" s="78" t="s">
         <v>28</v>
       </c>
       <c r="AF1" s="78"/>
       <c r="AG1" s="78"/>
       <c r="AH1" s="78"/>
-      <c r="AI1" s="74" t="s">
+      <c r="AI1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="79">
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="83">
         <v>45566</v>
       </c>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="74" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75" t="s">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="78"/>
       <c r="AF2" s="78"/>
       <c r="AG2" s="78"/>
       <c r="AH2" s="78"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="74" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
       <c r="T3" s="78" t="s">
         <v>33</v>
       </c>
@@ -8024,51 +8058,51 @@
       <c r="Y3" s="78"/>
       <c r="Z3" s="78"/>
       <c r="AA3" s="78"/>
-      <c r="AB3" s="74" t="s">
+      <c r="AB3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
       <c r="AE3" s="78" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="78"/>
       <c r="AG3" s="78"/>
       <c r="AH3" s="78"/>
-      <c r="AI3" s="74" t="s">
+      <c r="AI3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="79">
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="83">
         <v>45607</v>
       </c>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="78" t="s">
         <v>37</v>
       </c>
@@ -8079,44 +8113,44 @@
       <c r="Y4" s="78"/>
       <c r="Z4" s="78"/>
       <c r="AA4" s="78"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
       <c r="AE4" s="78"/>
       <c r="AF4" s="78"/>
       <c r="AG4" s="78"/>
       <c r="AH4" s="78"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="87" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="81" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="86" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -8146,51 +8180,51 @@
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="81" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
     </row>
     <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
@@ -8238,7 +8272,7 @@
     <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8319,7 +8353,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AO9" s="7"/>
     </row>
@@ -8591,17 +8625,17 @@
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
+      <c r="P16" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
       <c r="Y16" s="53"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
@@ -8677,17 +8711,17 @@
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
+      <c r="P18" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
       <c r="Y18" s="53"/>
       <c r="Z18" s="53"/>
       <c r="AA18" s="53"/>
@@ -8754,17 +8788,17 @@
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
-      <c r="P20" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
+      <c r="P20" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
       <c r="AA20" s="53"/>
@@ -8841,8 +8875,8 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
-      <c r="Q22" s="134" t="s">
-        <v>71</v>
+      <c r="Q22" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -9249,7 +9283,7 @@
     <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -9600,17 +9634,17 @@
       <c r="M40" s="53"/>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
-      <c r="P40" s="137" t="s">
+      <c r="P40" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="137"/>
-      <c r="W40" s="137"/>
-      <c r="X40" s="137"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
       <c r="Y40" s="53"/>
       <c r="Z40" s="53"/>
       <c r="AA40" s="53"/>
@@ -9686,17 +9720,17 @@
       <c r="M42" s="53"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
-      <c r="P42" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-      <c r="S42" s="136"/>
-      <c r="T42" s="136"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
+      <c r="P42" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
       <c r="Y42" s="53"/>
       <c r="Z42" s="53"/>
       <c r="AA42" s="53"/>
@@ -9763,17 +9797,17 @@
       <c r="M44" s="53"/>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
-      <c r="P44" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="133"/>
-      <c r="S44" s="133"/>
-      <c r="T44" s="133"/>
-      <c r="U44" s="133"/>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="133"/>
+      <c r="P44" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
       <c r="Y44" s="53"/>
       <c r="Z44" s="53"/>
       <c r="AA44" s="53"/>
@@ -9850,8 +9884,8 @@
       <c r="N46" s="53"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
-      <c r="Q46" s="134" t="s">
-        <v>71</v>
+      <c r="Q46" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="R46" s="53"/>
       <c r="S46" s="53"/>
@@ -10216,40 +10250,40 @@
     <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="26"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
-      <c r="AJ55" s="26"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="6"/>
@@ -10258,7 +10292,7 @@
     <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -10302,42 +10336,40 @@
     <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="22"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="29"/>
-      <c r="AJ57" s="30"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="38"/>
+      <c r="AE57" s="38"/>
+      <c r="AF57" s="38"/>
+      <c r="AG57" s="38"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="39"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="6"/>
@@ -10346,40 +10378,40 @@
     <row r="58" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="22"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="35"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="42"/>
+      <c r="AI58" s="42"/>
+      <c r="AJ58" s="41"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="6"/>
@@ -10388,44 +10420,40 @@
     <row r="59" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="22"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59"/>
-      <c r="AJ59" s="32"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="42"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
+      <c r="AF59" s="42"/>
+      <c r="AG59" s="42"/>
+      <c r="AH59" s="42"/>
+      <c r="AI59" s="42"/>
+      <c r="AJ59" s="41"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
       <c r="AM59" s="6"/>
@@ -10434,40 +10462,40 @@
     <row r="60" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="22"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60" s="32"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="42"/>
+      <c r="AG60" s="42"/>
+      <c r="AH60" s="42"/>
+      <c r="AI60" s="42"/>
+      <c r="AJ60" s="41"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
       <c r="AM60" s="6"/>
@@ -10476,52 +10504,42 @@
     <row r="61" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="22"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="1"/>
-      <c r="J61" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="144"/>
-      <c r="X61" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y61" s="140"/>
-      <c r="Z61" s="141"/>
-      <c r="AA61" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB61" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC61" s="139"/>
-      <c r="AD61" s="144"/>
-      <c r="AE61" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF61" s="139"/>
-      <c r="AG61" s="141"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="26"/>
-      <c r="AJ61" s="31"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="149" t="s">
+        <v>97</v>
+      </c>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="42"/>
+      <c r="AH61" s="42"/>
+      <c r="AI61" s="42"/>
+      <c r="AJ61" s="41"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
       <c r="AM61" s="6"/>
@@ -10530,50 +10548,40 @@
     <row r="62" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="22"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="1"/>
-      <c r="J62" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="141"/>
-      <c r="X62" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y62" s="139"/>
-      <c r="Z62" s="141"/>
-      <c r="AA62" s="142">
-        <v>61</v>
-      </c>
-      <c r="AB62" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC62" s="139"/>
-      <c r="AD62" s="141"/>
-      <c r="AE62" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF62" s="145"/>
-      <c r="AG62" s="146"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62" s="32"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="42"/>
+      <c r="AH62" s="42"/>
+      <c r="AI62" s="42"/>
+      <c r="AJ62" s="41"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="6"/>
@@ -10582,52 +10590,40 @@
     <row r="63" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="22"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="1"/>
-      <c r="J63" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="141"/>
-      <c r="X63" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y63" s="139"/>
-      <c r="Z63" s="141"/>
-      <c r="AA63" s="142">
-        <v>62</v>
-      </c>
-      <c r="AB63" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC63" s="139"/>
-      <c r="AD63" s="141"/>
-      <c r="AE63" s="148" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF63" s="145"/>
-      <c r="AG63" s="146"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63" s="32"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="42"/>
+      <c r="AH63" s="42"/>
+      <c r="AI63" s="42"/>
+      <c r="AJ63" s="41"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
       <c r="AM63" s="6"/>
@@ -10636,50 +10632,42 @@
     <row r="64" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="22"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="1"/>
-      <c r="J64" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="141"/>
-      <c r="X64" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y64" s="139"/>
-      <c r="Z64" s="141"/>
-      <c r="AA64" s="142">
-        <v>63</v>
-      </c>
-      <c r="AB64" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC64" s="139"/>
-      <c r="AD64" s="141"/>
-      <c r="AE64" s="148" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF64" s="145"/>
-      <c r="AG64" s="146"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64" s="32"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q64" s="101"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="101"/>
+      <c r="T64" s="101"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="101"/>
+      <c r="W64" s="101"/>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="53"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="42"/>
+      <c r="AG64" s="42"/>
+      <c r="AH64" s="42"/>
+      <c r="AI64" s="42"/>
+      <c r="AJ64" s="41"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
       <c r="AM64" s="6"/>
@@ -10688,52 +10676,40 @@
     <row r="65" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="22"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="1"/>
-      <c r="J65" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="141"/>
-      <c r="X65" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y65" s="139"/>
-      <c r="Z65" s="141"/>
-      <c r="AA65" s="142">
-        <v>64</v>
-      </c>
-      <c r="AB65" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC65" s="139"/>
-      <c r="AD65" s="141"/>
-      <c r="AE65" s="148" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF65" s="145"/>
-      <c r="AG65" s="146"/>
-      <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65" s="32"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="42"/>
+      <c r="AE65" s="42"/>
+      <c r="AF65" s="42"/>
+      <c r="AG65" s="42"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="42"/>
+      <c r="AJ65" s="41"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="6"/>
@@ -10742,50 +10718,42 @@
     <row r="66" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="1"/>
-      <c r="J66" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="141"/>
-      <c r="X66" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y66" s="139"/>
-      <c r="Z66" s="141"/>
-      <c r="AA66" s="142">
-        <v>65</v>
-      </c>
-      <c r="AB66" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC66" s="139"/>
-      <c r="AD66" s="141"/>
-      <c r="AE66" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF66" s="145"/>
-      <c r="AG66" s="146"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66" s="32"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="42"/>
+      <c r="AG66" s="42"/>
+      <c r="AH66" s="42"/>
+      <c r="AI66" s="42"/>
+      <c r="AJ66" s="41"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="6"/>
@@ -10794,50 +10762,31 @@
     <row r="67" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="22"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="1"/>
-      <c r="J67" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="141"/>
-      <c r="X67" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y67" s="139"/>
-      <c r="Z67" s="141"/>
-      <c r="AA67" s="142">
-        <v>66</v>
-      </c>
-      <c r="AB67" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC67" s="139"/>
-      <c r="AD67" s="141"/>
-      <c r="AE67" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF67" s="145"/>
-      <c r="AG67" s="146"/>
-      <c r="AH67"/>
-      <c r="AI67"/>
-      <c r="AJ67" s="32"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="53"/>
+      <c r="AA67" s="53"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42"/>
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="42"/>
+      <c r="AH67" s="42"/>
+      <c r="AI67" s="42"/>
+      <c r="AJ67" s="41"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
       <c r="AM67" s="6"/>
@@ -10846,50 +10795,42 @@
     <row r="68" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="22"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="1"/>
-      <c r="J68" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="141"/>
-      <c r="X68" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y68" s="139"/>
-      <c r="Z68" s="141"/>
-      <c r="AA68" s="142">
-        <v>67</v>
-      </c>
-      <c r="AB68" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC68" s="139"/>
-      <c r="AD68" s="141"/>
-      <c r="AE68" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF68" s="145"/>
-      <c r="AG68" s="146"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68" s="32"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="100"/>
+      <c r="R68" s="100"/>
+      <c r="S68" s="100"/>
+      <c r="T68" s="100"/>
+      <c r="U68" s="100"/>
+      <c r="V68" s="100"/>
+      <c r="W68" s="100"/>
+      <c r="X68" s="100"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="53"/>
+      <c r="AA68" s="53"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="42"/>
+      <c r="AF68" s="42"/>
+      <c r="AG68" s="42"/>
+      <c r="AH68" s="42"/>
+      <c r="AI68" s="42"/>
+      <c r="AJ68" s="41"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
       <c r="AM68" s="6"/>
@@ -10898,50 +10839,40 @@
     <row r="69" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="22"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="1"/>
-      <c r="J69" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="141"/>
-      <c r="X69" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y69" s="139"/>
-      <c r="Z69" s="141"/>
-      <c r="AA69" s="142">
-        <v>68</v>
-      </c>
-      <c r="AB69" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC69" s="139"/>
-      <c r="AD69" s="141"/>
-      <c r="AE69" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF69" s="145"/>
-      <c r="AG69" s="146"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69" s="32"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="41"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
       <c r="AM69" s="6"/>
@@ -10950,50 +10881,42 @@
     <row r="70" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="22"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="1"/>
-      <c r="J70" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="141"/>
-      <c r="X70" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y70" s="139"/>
-      <c r="Z70" s="141"/>
-      <c r="AA70" s="142">
-        <v>69</v>
-      </c>
-      <c r="AB70" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC70" s="139"/>
-      <c r="AD70" s="141"/>
-      <c r="AE70" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF70" s="145"/>
-      <c r="AG70" s="146"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AJ70" s="32"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="53"/>
+      <c r="AA70" s="53"/>
+      <c r="AB70" s="54"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="42"/>
+      <c r="AH70" s="42"/>
+      <c r="AI70" s="42"/>
+      <c r="AJ70" s="41"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="6"/>
@@ -11002,50 +10925,40 @@
     <row r="71" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="22"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="1"/>
-      <c r="J71" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="141"/>
-      <c r="X71" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y71" s="139"/>
-      <c r="Z71" s="141"/>
-      <c r="AA71" s="142">
-        <v>70</v>
-      </c>
-      <c r="AB71" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC71" s="139"/>
-      <c r="AD71" s="141"/>
-      <c r="AE71" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF71" s="145"/>
-      <c r="AG71" s="146"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
-      <c r="AJ71" s="32"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="47"/>
+      <c r="Z71" s="47"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="48"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="42"/>
+      <c r="AE71" s="42"/>
+      <c r="AF71" s="42"/>
+      <c r="AG71" s="42"/>
+      <c r="AH71" s="42"/>
+      <c r="AI71" s="42"/>
+      <c r="AJ71" s="41"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
       <c r="AM71" s="6"/>
@@ -11054,50 +10967,40 @@
     <row r="72" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="22"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="1"/>
-      <c r="J72" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="141"/>
-      <c r="X72" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y72" s="139"/>
-      <c r="Z72" s="141"/>
-      <c r="AA72" s="142">
-        <v>71</v>
-      </c>
-      <c r="AB72" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC72" s="139"/>
-      <c r="AD72" s="141"/>
-      <c r="AE72" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF72" s="145"/>
-      <c r="AG72" s="146"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72" s="32"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="42"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="41"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="6"/>
@@ -11106,50 +11009,40 @@
     <row r="73" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="22"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="1"/>
-      <c r="J73" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="141"/>
-      <c r="X73" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y73" s="139"/>
-      <c r="Z73" s="141"/>
-      <c r="AA73" s="142">
-        <v>72</v>
-      </c>
-      <c r="AB73" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC73" s="139"/>
-      <c r="AD73" s="141"/>
-      <c r="AE73" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF73" s="145"/>
-      <c r="AG73" s="146"/>
-      <c r="AH73"/>
-      <c r="AI73"/>
-      <c r="AJ73" s="32"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="41"/>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
       <c r="AM73" s="6"/>
@@ -11158,50 +11051,40 @@
     <row r="74" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="22"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="1"/>
-      <c r="J74" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="141"/>
-      <c r="X74" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y74" s="139"/>
-      <c r="Z74" s="141"/>
-      <c r="AA74" s="142">
-        <v>73</v>
-      </c>
-      <c r="AB74" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC74" s="139"/>
-      <c r="AD74" s="141"/>
-      <c r="AE74" s="148" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF74" s="145"/>
-      <c r="AG74" s="146"/>
-      <c r="AH74"/>
-      <c r="AI74"/>
-      <c r="AJ74" s="32"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="42"/>
+      <c r="AH74" s="42"/>
+      <c r="AI74" s="42"/>
+      <c r="AJ74" s="41"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="6"/>
@@ -11210,50 +11093,40 @@
     <row r="75" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="22"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="1"/>
-      <c r="J75" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="141"/>
-      <c r="X75" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y75" s="139"/>
-      <c r="Z75" s="141"/>
-      <c r="AA75" s="142">
-        <v>74</v>
-      </c>
-      <c r="AB75" s="147" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC75" s="139"/>
-      <c r="AD75" s="141"/>
-      <c r="AE75" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF75" s="145"/>
-      <c r="AG75" s="146"/>
-      <c r="AH75"/>
-      <c r="AI75"/>
-      <c r="AJ75" s="32"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="42"/>
+      <c r="AG75" s="42"/>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="42"/>
+      <c r="AJ75" s="41"/>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
       <c r="AM75" s="6"/>
@@ -11262,23 +11135,40 @@
     <row r="76" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="22"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76" s="32"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="41"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
       <c r="AM76" s="6"/>
@@ -11287,40 +11177,40 @@
     <row r="77" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="22"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77" s="32"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="42"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="42"/>
+      <c r="AG77" s="42"/>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="42"/>
+      <c r="AJ77" s="41"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
       <c r="AM77" s="6"/>
@@ -11329,40 +11219,40 @@
     <row r="78" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="22"/>
       <c r="B78" s="26"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-      <c r="AD78" s="34"/>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="34"/>
-      <c r="AG78" s="34"/>
-      <c r="AH78" s="34"/>
-      <c r="AI78" s="34"/>
-      <c r="AJ78" s="35"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+      <c r="Y78" s="44"/>
+      <c r="Z78" s="44"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="44"/>
+      <c r="AC78" s="44"/>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
+      <c r="AF78" s="44"/>
+      <c r="AG78" s="44"/>
+      <c r="AH78" s="44"/>
+      <c r="AI78" s="44"/>
+      <c r="AJ78" s="45"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
       <c r="AM78" s="6"/>
@@ -11371,40 +11261,40 @@
     <row r="79" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="22"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="26"/>
-      <c r="AH79" s="26"/>
-      <c r="AI79" s="26"/>
-      <c r="AJ79" s="26"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="42"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
       <c r="AM79" s="6"/>
@@ -11413,40 +11303,40 @@
     <row r="80" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="22"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="26"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="26"/>
-      <c r="AA80" s="26"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="26"/>
-      <c r="AD80" s="26"/>
-      <c r="AE80" s="26"/>
-      <c r="AF80" s="26"/>
-      <c r="AG80" s="26"/>
-      <c r="AH80" s="26"/>
-      <c r="AI80" s="26"/>
-      <c r="AJ80" s="26"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="6"/>
@@ -11454,141 +11344,1341 @@
     </row>
     <row r="81" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="22"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
       <c r="AM81" s="6"/>
       <c r="AO81" s="7"/>
     </row>
     <row r="82" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="23"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="9"/>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
-      <c r="AG82" s="9"/>
-      <c r="AH82" s="9"/>
-      <c r="AI82" s="9"/>
-      <c r="AJ82" s="9"/>
-      <c r="AK82" s="9"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="8"/>
-      <c r="AN82" s="9"/>
-      <c r="AO82" s="10"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="26"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="26"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="26"/>
+      <c r="AD82" s="26"/>
+      <c r="AE82" s="26"/>
+      <c r="AF82" s="26"/>
+      <c r="AG82" s="26"/>
+      <c r="AH82" s="26"/>
+      <c r="AI82" s="26"/>
+      <c r="AJ82" s="26"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="6"/>
+      <c r="AO82" s="7"/>
     </row>
     <row r="83" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="22"/>
+      <c r="B83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="26"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="26"/>
+      <c r="AA83" s="26"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="26"/>
+      <c r="AD83" s="26"/>
+      <c r="AE83" s="26"/>
+      <c r="AF83" s="26"/>
+      <c r="AG83" s="26"/>
+      <c r="AH83" s="26"/>
+      <c r="AI83" s="26"/>
+      <c r="AJ83" s="26"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="6"/>
+      <c r="AO83" s="7"/>
     </row>
     <row r="84" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="22"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28"/>
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="30"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="6"/>
+      <c r="AO84" s="7"/>
     </row>
     <row r="85" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="22"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="106"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
+      <c r="AB85" s="34"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="34"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
+      <c r="AG85" s="34"/>
+      <c r="AH85" s="34"/>
+      <c r="AI85" s="34"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="6"/>
+      <c r="AO85" s="7"/>
     </row>
     <row r="86" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="22"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="26"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="26"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="26"/>
+      <c r="AD86" s="26"/>
+      <c r="AE86" s="26"/>
+      <c r="AF86" s="26"/>
+      <c r="AG86" s="26"/>
+      <c r="AH86" s="26"/>
+      <c r="AI86"/>
+      <c r="AJ86" s="32"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="6"/>
+      <c r="AO86" s="7"/>
     </row>
     <row r="87" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="22"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="26"/>
+      <c r="X87" s="26"/>
+      <c r="Y87" s="26"/>
+      <c r="Z87" s="26"/>
+      <c r="AA87" s="26"/>
+      <c r="AB87" s="26"/>
+      <c r="AC87" s="26"/>
+      <c r="AD87" s="26"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87" s="32"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="6"/>
+      <c r="AO87" s="7"/>
     </row>
     <row r="88" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="22"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="1"/>
+      <c r="J88" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="72"/>
+      <c r="X88" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y88" s="68"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB88" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC88" s="67"/>
+      <c r="AD88" s="72"/>
+      <c r="AE88" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF88" s="67"/>
+      <c r="AG88" s="69"/>
+      <c r="AH88" s="26"/>
+      <c r="AI88" s="26"/>
+      <c r="AJ88" s="31"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="6"/>
+      <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="22"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="1"/>
+      <c r="J89" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="69"/>
+      <c r="X89" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y89" s="67"/>
+      <c r="Z89" s="69"/>
+      <c r="AA89" s="70">
+        <v>61</v>
+      </c>
+      <c r="AB89" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC89" s="67"/>
+      <c r="AD89" s="69"/>
+      <c r="AE89" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF89" s="73"/>
+      <c r="AG89" s="74"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89" s="32"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="6"/>
+      <c r="AO89" s="7"/>
     </row>
     <row r="90" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="22"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="1"/>
+      <c r="J90" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="69"/>
+      <c r="X90" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y90" s="67"/>
+      <c r="Z90" s="69"/>
+      <c r="AA90" s="70">
+        <v>62</v>
+      </c>
+      <c r="AB90" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC90" s="67"/>
+      <c r="AD90" s="69"/>
+      <c r="AE90" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF90" s="73"/>
+      <c r="AG90" s="74"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90" s="32"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="6"/>
+      <c r="AO90" s="7"/>
     </row>
     <row r="91" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="22"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="1"/>
+      <c r="J91" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="69"/>
+      <c r="X91" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y91" s="67"/>
+      <c r="Z91" s="69"/>
+      <c r="AA91" s="70">
+        <v>63</v>
+      </c>
+      <c r="AB91" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC91" s="67"/>
+      <c r="AD91" s="69"/>
+      <c r="AE91" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF91" s="73"/>
+      <c r="AG91" s="74"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91" s="32"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="6"/>
+      <c r="AO91" s="7"/>
     </row>
     <row r="92" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="22"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="1"/>
+      <c r="J92" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="69"/>
+      <c r="X92" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y92" s="67"/>
+      <c r="Z92" s="69"/>
+      <c r="AA92" s="70">
+        <v>64</v>
+      </c>
+      <c r="AB92" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC92" s="67"/>
+      <c r="AD92" s="69"/>
+      <c r="AE92" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF92" s="73"/>
+      <c r="AG92" s="74"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92" s="32"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="6"/>
+      <c r="AO92" s="7"/>
     </row>
     <row r="93" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="22"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="1"/>
+      <c r="J93" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y93" s="67"/>
+      <c r="Z93" s="69"/>
+      <c r="AA93" s="70">
+        <v>65</v>
+      </c>
+      <c r="AB93" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC93" s="67"/>
+      <c r="AD93" s="69"/>
+      <c r="AE93" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF93" s="73"/>
+      <c r="AG93" s="74"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93" s="32"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="6"/>
+      <c r="AO93" s="7"/>
     </row>
     <row r="94" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="22"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="1"/>
+      <c r="J94" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="69"/>
+      <c r="X94" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y94" s="67"/>
+      <c r="Z94" s="69"/>
+      <c r="AA94" s="70">
+        <v>66</v>
+      </c>
+      <c r="AB94" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC94" s="67"/>
+      <c r="AD94" s="69"/>
+      <c r="AE94" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF94" s="73"/>
+      <c r="AG94" s="74"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94" s="32"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="6"/>
+      <c r="AO94" s="7"/>
     </row>
     <row r="95" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="22"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="1"/>
+      <c r="J95" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="69"/>
+      <c r="X95" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y95" s="67"/>
+      <c r="Z95" s="69"/>
+      <c r="AA95" s="70">
+        <v>67</v>
+      </c>
+      <c r="AB95" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC95" s="67"/>
+      <c r="AD95" s="69"/>
+      <c r="AE95" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF95" s="73"/>
+      <c r="AG95" s="74"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95" s="32"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="6"/>
+      <c r="AO95" s="7"/>
     </row>
     <row r="96" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="22"/>
-    </row>
-    <row r="97" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B96" s="1"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="1"/>
+      <c r="J96" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="69"/>
+      <c r="X96" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y96" s="67"/>
+      <c r="Z96" s="69"/>
+      <c r="AA96" s="70">
+        <v>68</v>
+      </c>
+      <c r="AB96" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC96" s="67"/>
+      <c r="AD96" s="69"/>
+      <c r="AE96" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF96" s="73"/>
+      <c r="AG96" s="74"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96" s="32"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="6"/>
+      <c r="AO96" s="7"/>
+    </row>
+    <row r="97" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="22"/>
-    </row>
-    <row r="98" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B97" s="1"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="1"/>
+      <c r="J97" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="18"/>
+      <c r="U97" s="18"/>
+      <c r="V97" s="18"/>
+      <c r="W97" s="69"/>
+      <c r="X97" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y97" s="67"/>
+      <c r="Z97" s="69"/>
+      <c r="AA97" s="70">
+        <v>69</v>
+      </c>
+      <c r="AB97" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC97" s="67"/>
+      <c r="AD97" s="69"/>
+      <c r="AE97" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF97" s="73"/>
+      <c r="AG97" s="74"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97" s="32"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="6"/>
+      <c r="AO97" s="7"/>
+    </row>
+    <row r="98" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="22"/>
-    </row>
-    <row r="99" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B98" s="1"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="1"/>
+      <c r="J98" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="18"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y98" s="67"/>
+      <c r="Z98" s="69"/>
+      <c r="AA98" s="70">
+        <v>70</v>
+      </c>
+      <c r="AB98" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC98" s="67"/>
+      <c r="AD98" s="69"/>
+      <c r="AE98" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF98" s="73"/>
+      <c r="AG98" s="74"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98" s="32"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="6"/>
+      <c r="AO98" s="7"/>
+    </row>
+    <row r="99" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="22"/>
-    </row>
-    <row r="100" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B99" s="1"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="1"/>
+      <c r="J99" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y99" s="67"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="70">
+        <v>71</v>
+      </c>
+      <c r="AB99" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC99" s="67"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF99" s="73"/>
+      <c r="AG99" s="74"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99" s="32"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="6"/>
+      <c r="AO99" s="7"/>
+    </row>
+    <row r="100" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="22"/>
-    </row>
-    <row r="101" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B100" s="1"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="1"/>
+      <c r="J100" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
+      <c r="U100" s="18"/>
+      <c r="V100" s="18"/>
+      <c r="W100" s="69"/>
+      <c r="X100" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y100" s="67"/>
+      <c r="Z100" s="69"/>
+      <c r="AA100" s="70">
+        <v>72</v>
+      </c>
+      <c r="AB100" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC100" s="67"/>
+      <c r="AD100" s="69"/>
+      <c r="AE100" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF100" s="73"/>
+      <c r="AG100" s="74"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100" s="32"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="6"/>
+      <c r="AO100" s="7"/>
+    </row>
+    <row r="101" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="22"/>
-    </row>
-    <row r="102" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B101" s="1"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="1"/>
+      <c r="J101" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+      <c r="V101" s="18"/>
+      <c r="W101" s="69"/>
+      <c r="X101" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y101" s="67"/>
+      <c r="Z101" s="69"/>
+      <c r="AA101" s="70">
+        <v>73</v>
+      </c>
+      <c r="AB101" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC101" s="67"/>
+      <c r="AD101" s="69"/>
+      <c r="AE101" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF101" s="73"/>
+      <c r="AG101" s="74"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101" s="32"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="6"/>
+      <c r="AO101" s="7"/>
+    </row>
+    <row r="102" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="22"/>
-    </row>
-    <row r="103" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B102" s="1"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="1"/>
+      <c r="J102" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="18"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y102" s="67"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="70">
+        <v>74</v>
+      </c>
+      <c r="AB102" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC102" s="67"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF102" s="73"/>
+      <c r="AG102" s="74"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102" s="32"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="6"/>
+      <c r="AO102" s="7"/>
+    </row>
+    <row r="103" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="22"/>
-    </row>
-    <row r="104" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B103" s="1"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103" s="32"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="6"/>
+      <c r="AO103" s="7"/>
+    </row>
+    <row r="104" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="22"/>
-    </row>
-    <row r="105" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B104" s="1"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104" s="32"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="6"/>
+      <c r="AO104" s="7"/>
+    </row>
+    <row r="105" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="22"/>
-    </row>
-    <row r="106" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B105" s="26"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="34"/>
+      <c r="V105" s="34"/>
+      <c r="W105" s="34"/>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="34"/>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="34"/>
+      <c r="AB105" s="34"/>
+      <c r="AC105" s="34"/>
+      <c r="AD105" s="34"/>
+      <c r="AE105" s="34"/>
+      <c r="AF105" s="34"/>
+      <c r="AG105" s="34"/>
+      <c r="AH105" s="34"/>
+      <c r="AI105" s="34"/>
+      <c r="AJ105" s="35"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="6"/>
+      <c r="AO105" s="7"/>
+    </row>
+    <row r="106" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="22"/>
-    </row>
-    <row r="107" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="26"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="26"/>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="26"/>
+      <c r="Z106" s="26"/>
+      <c r="AA106" s="26"/>
+      <c r="AB106" s="26"/>
+      <c r="AC106" s="26"/>
+      <c r="AD106" s="26"/>
+      <c r="AE106" s="26"/>
+      <c r="AF106" s="26"/>
+      <c r="AG106" s="26"/>
+      <c r="AH106" s="26"/>
+      <c r="AI106" s="26"/>
+      <c r="AJ106" s="26"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="6"/>
+      <c r="AO106" s="7"/>
+    </row>
+    <row r="107" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="22"/>
-    </row>
-    <row r="108" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="26"/>
+      <c r="AD107" s="26"/>
+      <c r="AE107" s="26"/>
+      <c r="AF107" s="26"/>
+      <c r="AG107" s="26"/>
+      <c r="AH107" s="26"/>
+      <c r="AI107" s="26"/>
+      <c r="AJ107" s="26"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="6"/>
+      <c r="AO107" s="7"/>
+    </row>
+    <row r="108" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="22"/>
-    </row>
-    <row r="109" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="22"/>
-    </row>
-    <row r="110" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="6"/>
+      <c r="AO108" s="7"/>
+    </row>
+    <row r="109" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="23"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="9"/>
+      <c r="AG109" s="9"/>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="9"/>
+      <c r="AJ109" s="9"/>
+      <c r="AK109" s="9"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="9"/>
+      <c r="AO109" s="10"/>
+    </row>
+    <row r="110" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="22"/>
     </row>
-    <row r="111" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="22"/>
     </row>
-    <row r="112" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="22"/>
     </row>
     <row r="113" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
@@ -11711,16 +12801,104 @@
     <row r="152" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="22"/>
     </row>
+    <row r="153" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A153" s="22"/>
+    </row>
+    <row r="154" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A154" s="22"/>
+    </row>
+    <row r="155" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A155" s="22"/>
+    </row>
+    <row r="156" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A156" s="22"/>
+    </row>
+    <row r="157" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A158" s="22"/>
+    </row>
+    <row r="159" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A159" s="22"/>
+    </row>
+    <row r="160" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A160" s="22"/>
+    </row>
+    <row r="161" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A161" s="22"/>
+    </row>
+    <row r="162" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A162" s="22"/>
+    </row>
+    <row r="163" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A163" s="22"/>
+    </row>
+    <row r="164" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A164" s="22"/>
+    </row>
+    <row r="165" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A165" s="22"/>
+    </row>
+    <row r="166" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A166" s="22"/>
+    </row>
+    <row r="167" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A167" s="22"/>
+    </row>
+    <row r="168" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A168" s="22"/>
+    </row>
+    <row r="169" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A169" s="22"/>
+    </row>
+    <row r="170" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A170" s="22"/>
+    </row>
+    <row r="171" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A171" s="22"/>
+    </row>
+    <row r="172" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A172" s="22"/>
+    </row>
+    <row r="173" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A173" s="22"/>
+    </row>
+    <row r="174" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A174" s="22"/>
+    </row>
+    <row r="175" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A175" s="22"/>
+    </row>
+    <row r="176" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A176" s="22"/>
+    </row>
+    <row r="177" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A177" s="22"/>
+    </row>
+    <row r="178" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A178" s="22"/>
+    </row>
+    <row r="179" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A179" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="P16:X16"/>
-    <mergeCell ref="P18:X18"/>
-    <mergeCell ref="P20:X20"/>
-    <mergeCell ref="P40:X40"/>
-    <mergeCell ref="P42:X42"/>
+  <mergeCells count="33">
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="P64:X64"/>
+    <mergeCell ref="P66:X66"/>
+    <mergeCell ref="P68:X68"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="P44:X44"/>
     <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="C57:F58"/>
+    <mergeCell ref="C84:F85"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -11734,21 +12912,17 @@
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="P16:X16"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P20:X20"/>
+    <mergeCell ref="P40:X40"/>
+    <mergeCell ref="P42:X42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AE62" numberStoredAsText="1"/>
+    <ignoredError sqref="AE89" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -11760,8 +12934,8 @@
   </sheetPr>
   <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -11772,234 +12946,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="122" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="75" t="s">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="110" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="108" t="s">
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110" t="s">
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="127">
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="120">
         <v>45566</v>
       </c>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="129"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="122"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="122" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="75" t="s">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="132"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="125"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="122" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="84" t="s">
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="110" t="s">
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110" t="s">
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="127">
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="120">
         <v>45607</v>
       </c>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="118"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="139"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="122" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="84" t="s">
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="121"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="140"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="142"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="87" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="82" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="87" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -12029,64 +13203,64 @@
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="81" t="s">
+      <c r="A6" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
     </row>
     <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="125"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -12111,28 +13285,28 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="109"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="114"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
     <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -12156,25 +13330,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="136"/>
+      <c r="AI8" s="136"/>
+      <c r="AJ8" s="136"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="137"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
     <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -12199,29 +13373,29 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="99"/>
+      <c r="AF9" s="136"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="136"/>
+      <c r="AK9" s="136"/>
+      <c r="AL9" s="137"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
     <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -12244,25 +13418,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="99"/>
+      <c r="AF10" s="136"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="136"/>
+      <c r="AJ10" s="136"/>
+      <c r="AK10" s="136"/>
+      <c r="AL10" s="137"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
     <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="22"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -12287,28 +13461,28 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="99"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="136"/>
+      <c r="AK11" s="136"/>
+      <c r="AL11" s="137"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
     <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
       <c r="H12" s="22"/>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="27"/>
@@ -12332,31 +13506,31 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="99"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="136"/>
+      <c r="AJ12" s="136"/>
+      <c r="AK12" s="136"/>
+      <c r="AL12" s="137"/>
       <c r="AM12" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
     <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="22"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -12379,30 +13553,30 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="99"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="136"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="137"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
     <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="97"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="99"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="22"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -12424,30 +13598,30 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="99"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="137"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
     <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="97"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="99"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="22"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -12469,25 +13643,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="98"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="137"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
     <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="97"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="137"/>
       <c r="H16" s="22"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -12512,30 +13686,30 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="99"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="137"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
     <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="97"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="99"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="22"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -12557,30 +13731,30 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="99"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="136"/>
+      <c r="AJ17" s="136"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="137"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
     <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="97"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="99"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="137"/>
       <c r="H18" s="22"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -12602,25 +13776,25 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="99"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="136"/>
+      <c r="AJ18" s="136"/>
+      <c r="AK18" s="136"/>
+      <c r="AL18" s="137"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
     <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="97"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="99"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -12645,30 +13819,30 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="136"/>
+      <c r="AJ19" s="136"/>
+      <c r="AK19" s="136"/>
+      <c r="AL19" s="137"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
     <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="97"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="99"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="22"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -12690,30 +13864,30 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="99"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="136"/>
+      <c r="AJ20" s="136"/>
+      <c r="AK20" s="136"/>
+      <c r="AL20" s="137"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
     <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="97"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="99"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="22"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -12735,25 +13909,25 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="99"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="136"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="136"/>
+      <c r="AL21" s="137"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
     <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="97"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="99"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -12778,30 +13952,30 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="99"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="136"/>
+      <c r="AJ22" s="136"/>
+      <c r="AK22" s="136"/>
+      <c r="AL22" s="137"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
     <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="97"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="99"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -12823,30 +13997,30 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="99"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="137"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
     <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="97"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="99"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="22"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -12868,25 +14042,25 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="99"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="136"/>
+      <c r="AJ24" s="136"/>
+      <c r="AK24" s="136"/>
+      <c r="AL24" s="137"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
     <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="97"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="99"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="22"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -12911,25 +14085,25 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="99"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="136"/>
+      <c r="AJ25" s="136"/>
+      <c r="AK25" s="136"/>
+      <c r="AL25" s="137"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
     <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="97"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="99"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="137"/>
       <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -12954,25 +14128,25 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="99"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="136"/>
+      <c r="AK26" s="136"/>
+      <c r="AL26" s="137"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
     <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="97"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="99"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="137"/>
       <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -12997,25 +14171,25 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="98"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="99"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="136"/>
+      <c r="AK27" s="136"/>
+      <c r="AL27" s="137"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
     <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="97"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="99"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -13040,25 +14214,25 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="99"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="136"/>
+      <c r="AL28" s="137"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
     <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="97"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="99"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="22"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -13083,25 +14257,25 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="99"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="136"/>
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="136"/>
+      <c r="AL29" s="137"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
     <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="97"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="99"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="22"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -13126,25 +14300,25 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="99"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="136"/>
+      <c r="AK30" s="136"/>
+      <c r="AL30" s="137"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
     <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="97"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="99"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="22"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -13169,298 +14343,298 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="99"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="136"/>
+      <c r="AL31" s="137"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
     <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="22"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="99"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="137"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
     <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
       <c r="H33" s="22"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="99"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="136"/>
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="136"/>
+      <c r="AL33" s="137"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
     <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="22"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="99"/>
+      <c r="AF34" s="136"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="136"/>
+      <c r="AK34" s="136"/>
+      <c r="AL34" s="137"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
     <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="22"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="99"/>
+      <c r="AF35" s="136"/>
+      <c r="AG35" s="136"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="136"/>
+      <c r="AK35" s="136"/>
+      <c r="AL35" s="137"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="14"/>
     </row>
     <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="97"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="99"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="137"/>
       <c r="H36" s="22"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="98"/>
-      <c r="AK36" s="98"/>
-      <c r="AL36" s="99"/>
+      <c r="AF36" s="135"/>
+      <c r="AG36" s="136"/>
+      <c r="AH36" s="136"/>
+      <c r="AI36" s="136"/>
+      <c r="AJ36" s="136"/>
+      <c r="AK36" s="136"/>
+      <c r="AL36" s="137"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="14"/>
     </row>
     <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="22"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="98"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="99"/>
+      <c r="AF37" s="136"/>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="136"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="136"/>
+      <c r="AL37" s="137"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="14"/>
     </row>
     <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
       <c r="H38" s="22"/>
       <c r="AE38" s="14"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="99"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="136"/>
+      <c r="AH38" s="136"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="136"/>
+      <c r="AK38" s="136"/>
+      <c r="AL38" s="137"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="14"/>
     </row>
     <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="22"/>
       <c r="AE39" s="14"/>
-      <c r="AF39" s="98"/>
-      <c r="AG39" s="98"/>
-      <c r="AH39" s="98"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="98"/>
-      <c r="AL39" s="99"/>
+      <c r="AF39" s="136"/>
+      <c r="AG39" s="136"/>
+      <c r="AH39" s="136"/>
+      <c r="AI39" s="136"/>
+      <c r="AJ39" s="136"/>
+      <c r="AK39" s="136"/>
+      <c r="AL39" s="137"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="14"/>
     </row>
     <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
       <c r="H40" s="22"/>
       <c r="AE40" s="14"/>
-      <c r="AF40" s="98"/>
-      <c r="AG40" s="98"/>
-      <c r="AH40" s="98"/>
-      <c r="AI40" s="98"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="99"/>
+      <c r="AF40" s="136"/>
+      <c r="AG40" s="136"/>
+      <c r="AH40" s="136"/>
+      <c r="AI40" s="136"/>
+      <c r="AJ40" s="136"/>
+      <c r="AK40" s="136"/>
+      <c r="AL40" s="137"/>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="14"/>
     </row>
     <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
       <c r="H41" s="22"/>
       <c r="AE41" s="14"/>
-      <c r="AF41" s="98"/>
-      <c r="AG41" s="98"/>
-      <c r="AH41" s="98"/>
-      <c r="AI41" s="98"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="99"/>
+      <c r="AF41" s="136"/>
+      <c r="AG41" s="136"/>
+      <c r="AH41" s="136"/>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="136"/>
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="137"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="14"/>
     </row>
     <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
       <c r="H42" s="22"/>
       <c r="AE42" s="14"/>
-      <c r="AF42" s="98"/>
-      <c r="AG42" s="98"/>
-      <c r="AH42" s="98"/>
-      <c r="AI42" s="98"/>
-      <c r="AJ42" s="98"/>
-      <c r="AK42" s="98"/>
-      <c r="AL42" s="99"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="137"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="14"/>
     </row>
     <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
       <c r="H43" s="22"/>
       <c r="AE43" s="14"/>
-      <c r="AF43" s="98"/>
-      <c r="AG43" s="98"/>
-      <c r="AH43" s="98"/>
-      <c r="AI43" s="98"/>
-      <c r="AJ43" s="98"/>
-      <c r="AK43" s="98"/>
-      <c r="AL43" s="99"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="137"/>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="14"/>
     </row>
     <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
       <c r="H44" s="22"/>
       <c r="AE44" s="14"/>
-      <c r="AF44" s="98"/>
-      <c r="AG44" s="98"/>
-      <c r="AH44" s="98"/>
-      <c r="AI44" s="98"/>
-      <c r="AJ44" s="98"/>
-      <c r="AK44" s="98"/>
-      <c r="AL44" s="99"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="137"/>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
       <c r="AO44" s="14"/>
     </row>
     <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="105"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="23"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -13485,30 +14659,87 @@
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="16"/>
-      <c r="AF45" s="106"/>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="106"/>
-      <c r="AI45" s="106"/>
-      <c r="AJ45" s="106"/>
-      <c r="AK45" s="106"/>
-      <c r="AL45" s="107"/>
+      <c r="AF45" s="116"/>
+      <c r="AG45" s="116"/>
+      <c r="AH45" s="116"/>
+      <c r="AI45" s="116"/>
+      <c r="AJ45" s="116"/>
+      <c r="AK45" s="116"/>
+      <c r="AL45" s="117"/>
       <c r="AM45" s="15"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="H6:AE6"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="AF40:AL40"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="AF32:AL32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="AF33:AL33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AF34:AL34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="AF38:AL38"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="AF31:AL31"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="AF39:AL39"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="AF23:AL23"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="AF44:AL44"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="AF41:AL41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="AF42:AL42"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="AF45:AL45"/>
     <mergeCell ref="A43:G43"/>
@@ -13533,74 +14764,17 @@
     <mergeCell ref="T1:AA1"/>
     <mergeCell ref="AB1:AD2"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="AF44:AL44"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="AF41:AL41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="AF42:AL42"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="AF23:AL23"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="AF31:AL31"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="AF24:AL24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="AF39:AL39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="AF40:AL40"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="AF32:AL32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="AF33:AL33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="AF34:AL34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="AF35:AL35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="AF38:AL38"/>
+    <mergeCell ref="H6:AE6"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AD4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13615,7 +14789,7 @@
   </sheetPr>
   <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -13627,206 +14801,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="122" t="s">
+      <c r="A1" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="75" t="s">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="110" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="108" t="s">
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110" t="s">
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="127">
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="120">
         <v>45566</v>
       </c>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="129"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="122"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="122" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="75" t="s">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="132"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="125"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="122" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="84" t="s">
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="110" t="s">
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110" t="s">
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="118"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="139"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="122" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="84" t="s">
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="121"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="140"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="142"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="61"/>
@@ -13874,7 +15048,7 @@
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="58"/>
       <c r="B6" s="64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -13976,7 +15150,7 @@
       <c r="O8" s="59"/>
       <c r="P8" s="59"/>
       <c r="R8" s="59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S8" s="59"/>
       <c r="T8" s="59"/>
@@ -14007,7 +15181,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
       <c r="G9" s="59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
@@ -14168,7 +15342,7 @@
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -14252,7 +15426,7 @@
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
@@ -14625,7 +15799,7 @@
     <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="58"/>
       <c r="B24" s="64" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -16181,12 +17355,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -16198,6 +17366,12 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
